--- a/WIP/Users/HaTH/Lái xe.xlsx
+++ b/WIP/Users/HaTH/Lái xe.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Thông tin chung" sheetId="7" r:id="rId1"/>
@@ -1295,7 +1295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1610,6 +1610,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1619,27 +1697,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1652,69 +1715,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1724,18 +1724,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1793,66 +1820,36 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1862,29 +1859,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1947,7 +1953,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1982,7 +1988,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2870,39 +2876,39 @@
       <c r="AW5" s="1"/>
     </row>
     <row r="6" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="168"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="167" t="s">
+      <c r="C6" s="172"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="232" t="s">
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="233"/>
-      <c r="L6" s="233"/>
-      <c r="M6" s="233"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="167" t="s">
+      <c r="K6" s="212"/>
+      <c r="L6" s="212"/>
+      <c r="M6" s="212"/>
+      <c r="N6" s="213"/>
+      <c r="O6" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="168"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="167" t="s">
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="168"/>
-      <c r="V6" s="168"/>
-      <c r="W6" s="168"/>
-      <c r="X6" s="169"/>
+      <c r="U6" s="172"/>
+      <c r="V6" s="172"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="173"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
@@ -2977,15 +2983,15 @@
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="225"/>
-      <c r="L8" s="226"/>
-      <c r="M8" s="226"/>
-      <c r="N8" s="226"/>
-      <c r="O8" s="226"/>
-      <c r="P8" s="226"/>
-      <c r="Q8" s="226"/>
-      <c r="R8" s="226"/>
-      <c r="S8" s="227"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="205"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="205"/>
+      <c r="O8" s="205"/>
+      <c r="P8" s="205"/>
+      <c r="Q8" s="205"/>
+      <c r="R8" s="205"/>
+      <c r="S8" s="206"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
@@ -2997,17 +3003,17 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
-      <c r="AC8" s="225" t="s">
+      <c r="AC8" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="AD8" s="226"/>
-      <c r="AE8" s="226"/>
-      <c r="AF8" s="226"/>
-      <c r="AG8" s="226"/>
-      <c r="AH8" s="226"/>
-      <c r="AI8" s="226"/>
-      <c r="AJ8" s="226"/>
-      <c r="AK8" s="227"/>
+      <c r="AD8" s="205"/>
+      <c r="AE8" s="205"/>
+      <c r="AF8" s="205"/>
+      <c r="AG8" s="205"/>
+      <c r="AH8" s="205"/>
+      <c r="AI8" s="205"/>
+      <c r="AJ8" s="205"/>
+      <c r="AK8" s="206"/>
       <c r="AL8" s="16"/>
       <c r="AM8" s="16"/>
       <c r="AN8" s="16"/>
@@ -3075,11 +3081,11 @@
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
-      <c r="U10" s="228" t="s">
+      <c r="U10" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="V10" s="229"/>
-      <c r="W10" s="230"/>
+      <c r="V10" s="208"/>
+      <c r="W10" s="209"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
@@ -3186,60 +3192,60 @@
     </row>
     <row r="13" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
-      <c r="C13" s="203" t="s">
+      <c r="C13" s="202" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="205"/>
-      <c r="E13" s="203" t="s">
+      <c r="D13" s="203"/>
+      <c r="E13" s="202" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="203" t="s">
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="202" t="s">
         <v>135</v>
       </c>
-      <c r="K13" s="204"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="205"/>
-      <c r="P13" s="203" t="s">
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="203"/>
+      <c r="P13" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="Q13" s="204"/>
-      <c r="R13" s="204"/>
-      <c r="S13" s="204"/>
-      <c r="T13" s="204"/>
-      <c r="U13" s="205"/>
-      <c r="V13" s="203" t="s">
+      <c r="Q13" s="214"/>
+      <c r="R13" s="214"/>
+      <c r="S13" s="214"/>
+      <c r="T13" s="214"/>
+      <c r="U13" s="203"/>
+      <c r="V13" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="W13" s="204"/>
-      <c r="X13" s="204"/>
-      <c r="Y13" s="204"/>
-      <c r="Z13" s="204"/>
-      <c r="AA13" s="205"/>
-      <c r="AB13" s="203" t="s">
+      <c r="W13" s="214"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="214"/>
+      <c r="Z13" s="214"/>
+      <c r="AA13" s="203"/>
+      <c r="AB13" s="202" t="s">
         <v>117</v>
       </c>
-      <c r="AC13" s="204"/>
-      <c r="AD13" s="204"/>
-      <c r="AE13" s="205"/>
-      <c r="AF13" s="203" t="s">
+      <c r="AC13" s="214"/>
+      <c r="AD13" s="214"/>
+      <c r="AE13" s="203"/>
+      <c r="AF13" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="AG13" s="204"/>
-      <c r="AH13" s="204"/>
-      <c r="AI13" s="205"/>
-      <c r="AJ13" s="203" t="s">
+      <c r="AG13" s="214"/>
+      <c r="AH13" s="214"/>
+      <c r="AI13" s="203"/>
+      <c r="AJ13" s="202" t="s">
         <v>126</v>
       </c>
-      <c r="AK13" s="204"/>
-      <c r="AL13" s="204"/>
-      <c r="AM13" s="204"/>
-      <c r="AN13" s="205"/>
+      <c r="AK13" s="214"/>
+      <c r="AL13" s="214"/>
+      <c r="AM13" s="214"/>
+      <c r="AN13" s="203"/>
       <c r="AO13" s="17"/>
     </row>
     <row r="14" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3248,96 +3254,96 @@
         <v>1</v>
       </c>
       <c r="D14" s="118"/>
-      <c r="E14" s="206" t="s">
+      <c r="E14" s="215" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="207"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="207"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="206" t="s">
+      <c r="F14" s="216"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="216"/>
+      <c r="I14" s="217"/>
+      <c r="J14" s="215" t="s">
         <v>129</v>
       </c>
-      <c r="K14" s="207"/>
-      <c r="L14" s="207"/>
-      <c r="M14" s="207"/>
-      <c r="N14" s="207"/>
-      <c r="O14" s="208"/>
-      <c r="P14" s="206" t="s">
+      <c r="K14" s="216"/>
+      <c r="L14" s="216"/>
+      <c r="M14" s="216"/>
+      <c r="N14" s="216"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="215" t="s">
         <v>129</v>
       </c>
-      <c r="Q14" s="207"/>
-      <c r="R14" s="207"/>
-      <c r="S14" s="207"/>
-      <c r="T14" s="207"/>
-      <c r="U14" s="208"/>
-      <c r="V14" s="206" t="s">
+      <c r="Q14" s="216"/>
+      <c r="R14" s="216"/>
+      <c r="S14" s="216"/>
+      <c r="T14" s="216"/>
+      <c r="U14" s="217"/>
+      <c r="V14" s="215" t="s">
         <v>130</v>
       </c>
-      <c r="W14" s="207"/>
-      <c r="X14" s="207"/>
-      <c r="Y14" s="207"/>
-      <c r="Z14" s="207"/>
-      <c r="AA14" s="208"/>
-      <c r="AB14" s="219" t="s">
+      <c r="W14" s="216"/>
+      <c r="X14" s="216"/>
+      <c r="Y14" s="216"/>
+      <c r="Z14" s="216"/>
+      <c r="AA14" s="217"/>
+      <c r="AB14" s="228" t="s">
         <v>136</v>
       </c>
-      <c r="AC14" s="220"/>
-      <c r="AD14" s="220"/>
-      <c r="AE14" s="221"/>
-      <c r="AF14" s="206"/>
-      <c r="AG14" s="207"/>
-      <c r="AH14" s="207"/>
-      <c r="AI14" s="208"/>
-      <c r="AJ14" s="206" t="s">
+      <c r="AC14" s="229"/>
+      <c r="AD14" s="229"/>
+      <c r="AE14" s="230"/>
+      <c r="AF14" s="215"/>
+      <c r="AG14" s="216"/>
+      <c r="AH14" s="216"/>
+      <c r="AI14" s="217"/>
+      <c r="AJ14" s="215" t="s">
         <v>131</v>
       </c>
-      <c r="AK14" s="207"/>
-      <c r="AL14" s="207"/>
-      <c r="AM14" s="207"/>
-      <c r="AN14" s="208"/>
+      <c r="AK14" s="216"/>
+      <c r="AL14" s="216"/>
+      <c r="AM14" s="216"/>
+      <c r="AN14" s="217"/>
       <c r="AO14" s="17"/>
     </row>
     <row r="15" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="119"/>
       <c r="D15" s="120"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="210"/>
-      <c r="L15" s="210"/>
-      <c r="M15" s="210"/>
-      <c r="N15" s="210"/>
-      <c r="O15" s="211"/>
-      <c r="P15" s="209"/>
-      <c r="Q15" s="210"/>
-      <c r="R15" s="210"/>
-      <c r="S15" s="210"/>
-      <c r="T15" s="210"/>
-      <c r="U15" s="211"/>
-      <c r="V15" s="209"/>
-      <c r="W15" s="210"/>
-      <c r="X15" s="210"/>
-      <c r="Y15" s="210"/>
-      <c r="Z15" s="210"/>
-      <c r="AA15" s="211"/>
-      <c r="AB15" s="222"/>
-      <c r="AC15" s="223"/>
-      <c r="AD15" s="223"/>
-      <c r="AE15" s="224"/>
-      <c r="AF15" s="209"/>
-      <c r="AG15" s="210"/>
-      <c r="AH15" s="210"/>
-      <c r="AI15" s="211"/>
-      <c r="AJ15" s="209"/>
-      <c r="AK15" s="210"/>
-      <c r="AL15" s="210"/>
-      <c r="AM15" s="210"/>
-      <c r="AN15" s="211"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="219"/>
+      <c r="L15" s="219"/>
+      <c r="M15" s="219"/>
+      <c r="N15" s="219"/>
+      <c r="O15" s="220"/>
+      <c r="P15" s="218"/>
+      <c r="Q15" s="219"/>
+      <c r="R15" s="219"/>
+      <c r="S15" s="219"/>
+      <c r="T15" s="219"/>
+      <c r="U15" s="220"/>
+      <c r="V15" s="218"/>
+      <c r="W15" s="219"/>
+      <c r="X15" s="219"/>
+      <c r="Y15" s="219"/>
+      <c r="Z15" s="219"/>
+      <c r="AA15" s="220"/>
+      <c r="AB15" s="231"/>
+      <c r="AC15" s="232"/>
+      <c r="AD15" s="232"/>
+      <c r="AE15" s="233"/>
+      <c r="AF15" s="218"/>
+      <c r="AG15" s="219"/>
+      <c r="AH15" s="219"/>
+      <c r="AI15" s="220"/>
+      <c r="AJ15" s="218"/>
+      <c r="AK15" s="219"/>
+      <c r="AL15" s="219"/>
+      <c r="AM15" s="219"/>
+      <c r="AN15" s="220"/>
       <c r="AO15" s="17"/>
     </row>
     <row r="16" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3346,98 +3352,98 @@
         <v>2</v>
       </c>
       <c r="D16" s="122"/>
-      <c r="E16" s="212" t="s">
+      <c r="E16" s="221" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="213"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="215" t="s">
+      <c r="F16" s="222"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="224" t="s">
         <v>132</v>
       </c>
-      <c r="K16" s="216"/>
-      <c r="L16" s="216"/>
-      <c r="M16" s="216"/>
-      <c r="N16" s="216"/>
-      <c r="O16" s="217"/>
-      <c r="P16" s="215" t="s">
+      <c r="K16" s="225"/>
+      <c r="L16" s="225"/>
+      <c r="M16" s="225"/>
+      <c r="N16" s="225"/>
+      <c r="O16" s="226"/>
+      <c r="P16" s="224" t="s">
         <v>132</v>
       </c>
-      <c r="Q16" s="216"/>
-      <c r="R16" s="216"/>
-      <c r="S16" s="216"/>
-      <c r="T16" s="216"/>
-      <c r="U16" s="217"/>
-      <c r="V16" s="215" t="s">
+      <c r="Q16" s="225"/>
+      <c r="R16" s="225"/>
+      <c r="S16" s="225"/>
+      <c r="T16" s="225"/>
+      <c r="U16" s="226"/>
+      <c r="V16" s="224" t="s">
         <v>133</v>
       </c>
-      <c r="W16" s="216"/>
-      <c r="X16" s="216"/>
-      <c r="Y16" s="216"/>
-      <c r="Z16" s="216"/>
-      <c r="AA16" s="217"/>
-      <c r="AB16" s="218" t="s">
+      <c r="W16" s="225"/>
+      <c r="X16" s="225"/>
+      <c r="Y16" s="225"/>
+      <c r="Z16" s="225"/>
+      <c r="AA16" s="226"/>
+      <c r="AB16" s="227" t="s">
         <v>136</v>
       </c>
-      <c r="AC16" s="216"/>
-      <c r="AD16" s="216"/>
-      <c r="AE16" s="217"/>
-      <c r="AF16" s="215" t="s">
+      <c r="AC16" s="225"/>
+      <c r="AD16" s="225"/>
+      <c r="AE16" s="226"/>
+      <c r="AF16" s="224" t="s">
         <v>45</v>
       </c>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="216"/>
-      <c r="AI16" s="217"/>
-      <c r="AJ16" s="215" t="s">
+      <c r="AG16" s="225"/>
+      <c r="AH16" s="225"/>
+      <c r="AI16" s="226"/>
+      <c r="AJ16" s="224" t="s">
         <v>134</v>
       </c>
-      <c r="AK16" s="216"/>
-      <c r="AL16" s="216"/>
-      <c r="AM16" s="216"/>
-      <c r="AN16" s="217"/>
+      <c r="AK16" s="225"/>
+      <c r="AL16" s="225"/>
+      <c r="AM16" s="225"/>
+      <c r="AN16" s="226"/>
       <c r="AO16" s="17"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="121"/>
       <c r="D17" s="122"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="214"/>
-      <c r="J17" s="215"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="216"/>
-      <c r="M17" s="216"/>
-      <c r="N17" s="216"/>
-      <c r="O17" s="217"/>
-      <c r="P17" s="215"/>
-      <c r="Q17" s="216"/>
-      <c r="R17" s="216"/>
-      <c r="S17" s="216"/>
-      <c r="T17" s="216"/>
-      <c r="U17" s="217"/>
-      <c r="V17" s="215"/>
-      <c r="W17" s="216"/>
-      <c r="X17" s="216"/>
-      <c r="Y17" s="216"/>
-      <c r="Z17" s="216"/>
-      <c r="AA17" s="217"/>
-      <c r="AB17" s="215"/>
-      <c r="AC17" s="216"/>
-      <c r="AD17" s="216"/>
-      <c r="AE17" s="217"/>
-      <c r="AF17" s="215"/>
-      <c r="AG17" s="216"/>
-      <c r="AH17" s="216"/>
-      <c r="AI17" s="217"/>
-      <c r="AJ17" s="215"/>
-      <c r="AK17" s="216"/>
-      <c r="AL17" s="216"/>
-      <c r="AM17" s="216"/>
-      <c r="AN17" s="217"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="222"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="224"/>
+      <c r="K17" s="225"/>
+      <c r="L17" s="225"/>
+      <c r="M17" s="225"/>
+      <c r="N17" s="225"/>
+      <c r="O17" s="226"/>
+      <c r="P17" s="224"/>
+      <c r="Q17" s="225"/>
+      <c r="R17" s="225"/>
+      <c r="S17" s="225"/>
+      <c r="T17" s="225"/>
+      <c r="U17" s="226"/>
+      <c r="V17" s="224"/>
+      <c r="W17" s="225"/>
+      <c r="X17" s="225"/>
+      <c r="Y17" s="225"/>
+      <c r="Z17" s="225"/>
+      <c r="AA17" s="226"/>
+      <c r="AB17" s="224"/>
+      <c r="AC17" s="225"/>
+      <c r="AD17" s="225"/>
+      <c r="AE17" s="226"/>
+      <c r="AF17" s="224"/>
+      <c r="AG17" s="225"/>
+      <c r="AH17" s="225"/>
+      <c r="AI17" s="226"/>
+      <c r="AJ17" s="224"/>
+      <c r="AK17" s="225"/>
+      <c r="AL17" s="225"/>
+      <c r="AM17" s="225"/>
+      <c r="AN17" s="226"/>
       <c r="AO17" s="17"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -4429,6 +4435,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="V13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="V14:AA15"/>
+    <mergeCell ref="V16:AA17"/>
+    <mergeCell ref="AB16:AE17"/>
+    <mergeCell ref="AF16:AI17"/>
+    <mergeCell ref="AJ16:AN17"/>
+    <mergeCell ref="AB14:AE15"/>
+    <mergeCell ref="AF14:AI15"/>
+    <mergeCell ref="AJ14:AN15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E16:I17"/>
+    <mergeCell ref="J14:O15"/>
+    <mergeCell ref="J16:O17"/>
+    <mergeCell ref="P14:U15"/>
+    <mergeCell ref="P16:U17"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="K8:S8"/>
     <mergeCell ref="AC8:AK8"/>
@@ -4442,25 +4464,9 @@
     <mergeCell ref="T6:X6"/>
     <mergeCell ref="AF13:AI13"/>
     <mergeCell ref="AJ13:AN13"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E16:I17"/>
-    <mergeCell ref="J14:O15"/>
-    <mergeCell ref="J16:O17"/>
-    <mergeCell ref="P14:U15"/>
-    <mergeCell ref="P16:U17"/>
-    <mergeCell ref="V14:AA15"/>
-    <mergeCell ref="V16:AA17"/>
-    <mergeCell ref="AB16:AE17"/>
-    <mergeCell ref="AF16:AI17"/>
-    <mergeCell ref="AJ16:AN17"/>
-    <mergeCell ref="AB14:AE15"/>
-    <mergeCell ref="AF14:AI15"/>
-    <mergeCell ref="AJ14:AN15"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:U13"/>
-    <mergeCell ref="V13:AA13"/>
-    <mergeCell ref="AB13:AE13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Sheet1!A1" display="Home"/>
@@ -5080,39 +5086,39 @@
       <c r="AW5" s="1"/>
     </row>
     <row r="6" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="168"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="167" t="s">
+      <c r="C6" s="172"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="196" t="s">
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="244" t="s">
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="165"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="167" t="s">
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="192"/>
+      <c r="T6" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="168"/>
-      <c r="V6" s="168"/>
-      <c r="W6" s="168"/>
-      <c r="X6" s="169"/>
+      <c r="U6" s="172"/>
+      <c r="V6" s="172"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="173"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
@@ -5186,15 +5192,15 @@
       <c r="G8" s="16"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="225"/>
-      <c r="K8" s="226"/>
-      <c r="L8" s="226"/>
-      <c r="M8" s="226"/>
-      <c r="N8" s="226"/>
-      <c r="O8" s="226"/>
-      <c r="P8" s="226"/>
-      <c r="Q8" s="226"/>
-      <c r="R8" s="227"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="205"/>
+      <c r="L8" s="205"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="205"/>
+      <c r="O8" s="205"/>
+      <c r="P8" s="205"/>
+      <c r="Q8" s="205"/>
+      <c r="R8" s="206"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
@@ -5206,17 +5212,17 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
-      <c r="AC8" s="225" t="s">
+      <c r="AC8" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="AD8" s="226"/>
-      <c r="AE8" s="226"/>
-      <c r="AF8" s="226"/>
-      <c r="AG8" s="226"/>
-      <c r="AH8" s="226"/>
-      <c r="AI8" s="226"/>
-      <c r="AJ8" s="226"/>
-      <c r="AK8" s="227"/>
+      <c r="AD8" s="205"/>
+      <c r="AE8" s="205"/>
+      <c r="AF8" s="205"/>
+      <c r="AG8" s="205"/>
+      <c r="AH8" s="205"/>
+      <c r="AI8" s="205"/>
+      <c r="AJ8" s="205"/>
+      <c r="AK8" s="206"/>
       <c r="AL8" s="16"/>
       <c r="AM8" s="16"/>
       <c r="AN8" s="16"/>
@@ -5278,12 +5284,12 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
-      <c r="T10" s="228" t="s">
+      <c r="T10" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="U10" s="229"/>
-      <c r="V10" s="229"/>
-      <c r="W10" s="230"/>
+      <c r="U10" s="208"/>
+      <c r="V10" s="208"/>
+      <c r="W10" s="209"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
@@ -5312,260 +5318,260 @@
     </row>
     <row r="12" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="E12" s="241" t="s">
+      <c r="E12" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="243"/>
-      <c r="G12" s="241" t="s">
+      <c r="F12" s="242"/>
+      <c r="G12" s="240" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="242"/>
-      <c r="I12" s="242"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="243"/>
-      <c r="M12" s="241" t="s">
+      <c r="H12" s="241"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="241"/>
+      <c r="K12" s="241"/>
+      <c r="L12" s="242"/>
+      <c r="M12" s="240" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="242"/>
-      <c r="O12" s="242"/>
-      <c r="P12" s="242"/>
-      <c r="Q12" s="242"/>
-      <c r="R12" s="243"/>
-      <c r="S12" s="241" t="s">
+      <c r="N12" s="241"/>
+      <c r="O12" s="241"/>
+      <c r="P12" s="241"/>
+      <c r="Q12" s="241"/>
+      <c r="R12" s="242"/>
+      <c r="S12" s="240" t="s">
         <v>59</v>
       </c>
-      <c r="T12" s="242"/>
-      <c r="U12" s="242"/>
-      <c r="V12" s="242"/>
-      <c r="W12" s="242"/>
-      <c r="X12" s="243"/>
-      <c r="Y12" s="241" t="s">
+      <c r="T12" s="241"/>
+      <c r="U12" s="241"/>
+      <c r="V12" s="241"/>
+      <c r="W12" s="241"/>
+      <c r="X12" s="242"/>
+      <c r="Y12" s="240" t="s">
         <v>170</v>
       </c>
-      <c r="Z12" s="242"/>
-      <c r="AA12" s="242"/>
-      <c r="AB12" s="242"/>
-      <c r="AC12" s="242"/>
-      <c r="AD12" s="243"/>
-      <c r="AE12" s="241" t="s">
+      <c r="Z12" s="241"/>
+      <c r="AA12" s="241"/>
+      <c r="AB12" s="241"/>
+      <c r="AC12" s="241"/>
+      <c r="AD12" s="242"/>
+      <c r="AE12" s="240" t="s">
         <v>60</v>
       </c>
-      <c r="AF12" s="242"/>
-      <c r="AG12" s="242"/>
-      <c r="AH12" s="242"/>
-      <c r="AI12" s="242"/>
-      <c r="AJ12" s="243"/>
+      <c r="AF12" s="241"/>
+      <c r="AG12" s="241"/>
+      <c r="AH12" s="241"/>
+      <c r="AI12" s="241"/>
+      <c r="AJ12" s="242"/>
       <c r="AO12" s="17"/>
     </row>
     <row r="13" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="E13" s="238">
+      <c r="E13" s="235">
         <v>1</v>
       </c>
-      <c r="F13" s="240"/>
-      <c r="G13" s="238" t="s">
+      <c r="F13" s="237"/>
+      <c r="G13" s="235" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="239"/>
-      <c r="I13" s="239"/>
-      <c r="J13" s="239"/>
-      <c r="K13" s="239"/>
-      <c r="L13" s="240"/>
-      <c r="M13" s="238" t="s">
+      <c r="H13" s="236"/>
+      <c r="I13" s="236"/>
+      <c r="J13" s="236"/>
+      <c r="K13" s="236"/>
+      <c r="L13" s="237"/>
+      <c r="M13" s="235" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="239"/>
-      <c r="O13" s="239"/>
-      <c r="P13" s="239"/>
-      <c r="Q13" s="239"/>
-      <c r="R13" s="240"/>
-      <c r="S13" s="238" t="s">
+      <c r="N13" s="236"/>
+      <c r="O13" s="236"/>
+      <c r="P13" s="236"/>
+      <c r="Q13" s="236"/>
+      <c r="R13" s="237"/>
+      <c r="S13" s="235" t="s">
         <v>62</v>
       </c>
-      <c r="T13" s="239"/>
-      <c r="U13" s="239"/>
-      <c r="V13" s="239"/>
-      <c r="W13" s="239"/>
-      <c r="X13" s="240"/>
-      <c r="Y13" s="238" t="s">
+      <c r="T13" s="236"/>
+      <c r="U13" s="236"/>
+      <c r="V13" s="236"/>
+      <c r="W13" s="236"/>
+      <c r="X13" s="237"/>
+      <c r="Y13" s="235" t="s">
         <v>171</v>
       </c>
-      <c r="Z13" s="239"/>
-      <c r="AA13" s="239"/>
-      <c r="AB13" s="239"/>
-      <c r="AC13" s="239"/>
-      <c r="AD13" s="240"/>
-      <c r="AE13" s="238" t="s">
+      <c r="Z13" s="236"/>
+      <c r="AA13" s="236"/>
+      <c r="AB13" s="236"/>
+      <c r="AC13" s="236"/>
+      <c r="AD13" s="237"/>
+      <c r="AE13" s="235" t="s">
         <v>63</v>
       </c>
-      <c r="AF13" s="239"/>
-      <c r="AG13" s="239"/>
-      <c r="AH13" s="239"/>
-      <c r="AI13" s="239"/>
-      <c r="AJ13" s="240"/>
+      <c r="AF13" s="236"/>
+      <c r="AG13" s="236"/>
+      <c r="AH13" s="236"/>
+      <c r="AI13" s="236"/>
+      <c r="AJ13" s="237"/>
       <c r="AO13" s="17"/>
     </row>
     <row r="14" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="E14" s="235">
+      <c r="E14" s="238">
         <v>2</v>
       </c>
-      <c r="F14" s="237"/>
-      <c r="G14" s="235" t="s">
+      <c r="F14" s="239"/>
+      <c r="G14" s="238" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="236"/>
-      <c r="I14" s="236"/>
-      <c r="J14" s="236"/>
-      <c r="K14" s="236"/>
-      <c r="L14" s="237"/>
-      <c r="M14" s="235" t="s">
+      <c r="H14" s="243"/>
+      <c r="I14" s="243"/>
+      <c r="J14" s="243"/>
+      <c r="K14" s="243"/>
+      <c r="L14" s="239"/>
+      <c r="M14" s="238" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="236"/>
-      <c r="O14" s="236"/>
-      <c r="P14" s="236"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="237"/>
-      <c r="S14" s="235"/>
-      <c r="T14" s="236"/>
-      <c r="U14" s="236"/>
-      <c r="V14" s="236"/>
-      <c r="W14" s="236"/>
-      <c r="X14" s="237"/>
-      <c r="Y14" s="235" t="s">
+      <c r="N14" s="243"/>
+      <c r="O14" s="243"/>
+      <c r="P14" s="243"/>
+      <c r="Q14" s="243"/>
+      <c r="R14" s="239"/>
+      <c r="S14" s="238"/>
+      <c r="T14" s="243"/>
+      <c r="U14" s="243"/>
+      <c r="V14" s="243"/>
+      <c r="W14" s="243"/>
+      <c r="X14" s="239"/>
+      <c r="Y14" s="238" t="s">
         <v>172</v>
       </c>
-      <c r="Z14" s="236"/>
-      <c r="AA14" s="236"/>
-      <c r="AB14" s="236"/>
-      <c r="AC14" s="236"/>
-      <c r="AD14" s="237"/>
-      <c r="AE14" s="235" t="s">
+      <c r="Z14" s="243"/>
+      <c r="AA14" s="243"/>
+      <c r="AB14" s="243"/>
+      <c r="AC14" s="243"/>
+      <c r="AD14" s="239"/>
+      <c r="AE14" s="238" t="s">
         <v>67</v>
       </c>
-      <c r="AF14" s="236"/>
-      <c r="AG14" s="236"/>
-      <c r="AH14" s="236"/>
-      <c r="AI14" s="236"/>
-      <c r="AJ14" s="237"/>
+      <c r="AF14" s="243"/>
+      <c r="AG14" s="243"/>
+      <c r="AH14" s="243"/>
+      <c r="AI14" s="243"/>
+      <c r="AJ14" s="239"/>
       <c r="AO14" s="17"/>
     </row>
     <row r="15" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
-      <c r="E15" s="238">
+      <c r="E15" s="235">
         <v>3</v>
       </c>
-      <c r="F15" s="240"/>
-      <c r="G15" s="238"/>
-      <c r="H15" s="239"/>
-      <c r="I15" s="239"/>
-      <c r="J15" s="239"/>
-      <c r="K15" s="239"/>
-      <c r="L15" s="240"/>
-      <c r="M15" s="238"/>
-      <c r="N15" s="239"/>
-      <c r="O15" s="239"/>
-      <c r="P15" s="239"/>
-      <c r="Q15" s="239"/>
-      <c r="R15" s="240"/>
-      <c r="S15" s="238"/>
-      <c r="T15" s="239"/>
-      <c r="U15" s="239"/>
-      <c r="V15" s="239"/>
-      <c r="W15" s="239"/>
-      <c r="X15" s="240"/>
-      <c r="Y15" s="238"/>
-      <c r="Z15" s="239"/>
-      <c r="AA15" s="239"/>
-      <c r="AB15" s="239"/>
-      <c r="AC15" s="239"/>
-      <c r="AD15" s="240"/>
-      <c r="AE15" s="238"/>
-      <c r="AF15" s="239"/>
-      <c r="AG15" s="239"/>
-      <c r="AH15" s="239"/>
-      <c r="AI15" s="239"/>
-      <c r="AJ15" s="240"/>
+      <c r="F15" s="237"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="236"/>
+      <c r="I15" s="236"/>
+      <c r="J15" s="236"/>
+      <c r="K15" s="236"/>
+      <c r="L15" s="237"/>
+      <c r="M15" s="235"/>
+      <c r="N15" s="236"/>
+      <c r="O15" s="236"/>
+      <c r="P15" s="236"/>
+      <c r="Q15" s="236"/>
+      <c r="R15" s="237"/>
+      <c r="S15" s="235"/>
+      <c r="T15" s="236"/>
+      <c r="U15" s="236"/>
+      <c r="V15" s="236"/>
+      <c r="W15" s="236"/>
+      <c r="X15" s="237"/>
+      <c r="Y15" s="235"/>
+      <c r="Z15" s="236"/>
+      <c r="AA15" s="236"/>
+      <c r="AB15" s="236"/>
+      <c r="AC15" s="236"/>
+      <c r="AD15" s="237"/>
+      <c r="AE15" s="235"/>
+      <c r="AF15" s="236"/>
+      <c r="AG15" s="236"/>
+      <c r="AH15" s="236"/>
+      <c r="AI15" s="236"/>
+      <c r="AJ15" s="237"/>
       <c r="AO15" s="17"/>
     </row>
     <row r="16" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="E16" s="235">
+      <c r="E16" s="238">
         <v>4</v>
       </c>
-      <c r="F16" s="237"/>
-      <c r="G16" s="235"/>
-      <c r="H16" s="236"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="236"/>
-      <c r="K16" s="236"/>
-      <c r="L16" s="237"/>
-      <c r="M16" s="235"/>
-      <c r="N16" s="236"/>
-      <c r="O16" s="236"/>
-      <c r="P16" s="236"/>
-      <c r="Q16" s="236"/>
-      <c r="R16" s="237"/>
-      <c r="S16" s="235"/>
-      <c r="T16" s="236"/>
-      <c r="U16" s="236"/>
-      <c r="V16" s="236"/>
-      <c r="W16" s="236"/>
-      <c r="X16" s="237"/>
-      <c r="Y16" s="235"/>
-      <c r="Z16" s="236"/>
-      <c r="AA16" s="236"/>
-      <c r="AB16" s="236"/>
-      <c r="AC16" s="236"/>
-      <c r="AD16" s="237"/>
-      <c r="AE16" s="235"/>
-      <c r="AF16" s="236"/>
-      <c r="AG16" s="236"/>
-      <c r="AH16" s="236"/>
-      <c r="AI16" s="236"/>
-      <c r="AJ16" s="237"/>
+      <c r="F16" s="239"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="243"/>
+      <c r="I16" s="243"/>
+      <c r="J16" s="243"/>
+      <c r="K16" s="243"/>
+      <c r="L16" s="239"/>
+      <c r="M16" s="238"/>
+      <c r="N16" s="243"/>
+      <c r="O16" s="243"/>
+      <c r="P16" s="243"/>
+      <c r="Q16" s="243"/>
+      <c r="R16" s="239"/>
+      <c r="S16" s="238"/>
+      <c r="T16" s="243"/>
+      <c r="U16" s="243"/>
+      <c r="V16" s="243"/>
+      <c r="W16" s="243"/>
+      <c r="X16" s="239"/>
+      <c r="Y16" s="238"/>
+      <c r="Z16" s="243"/>
+      <c r="AA16" s="243"/>
+      <c r="AB16" s="243"/>
+      <c r="AC16" s="243"/>
+      <c r="AD16" s="239"/>
+      <c r="AE16" s="238"/>
+      <c r="AF16" s="243"/>
+      <c r="AG16" s="243"/>
+      <c r="AH16" s="243"/>
+      <c r="AI16" s="243"/>
+      <c r="AJ16" s="239"/>
       <c r="AO16" s="17"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="238">
+      <c r="E17" s="235">
         <v>5</v>
       </c>
-      <c r="F17" s="240"/>
-      <c r="G17" s="238"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="239"/>
-      <c r="J17" s="239"/>
-      <c r="K17" s="239"/>
-      <c r="L17" s="240"/>
-      <c r="M17" s="238"/>
-      <c r="N17" s="239"/>
-      <c r="O17" s="239"/>
-      <c r="P17" s="239"/>
-      <c r="Q17" s="239"/>
-      <c r="R17" s="240"/>
-      <c r="S17" s="238"/>
-      <c r="T17" s="239"/>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="240"/>
-      <c r="Y17" s="238"/>
-      <c r="Z17" s="239"/>
-      <c r="AA17" s="239"/>
-      <c r="AB17" s="239"/>
-      <c r="AC17" s="239"/>
-      <c r="AD17" s="240"/>
-      <c r="AE17" s="238"/>
-      <c r="AF17" s="239"/>
-      <c r="AG17" s="239"/>
-      <c r="AH17" s="239"/>
-      <c r="AI17" s="239"/>
-      <c r="AJ17" s="240"/>
+      <c r="F17" s="237"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="236"/>
+      <c r="I17" s="236"/>
+      <c r="J17" s="236"/>
+      <c r="K17" s="236"/>
+      <c r="L17" s="237"/>
+      <c r="M17" s="235"/>
+      <c r="N17" s="236"/>
+      <c r="O17" s="236"/>
+      <c r="P17" s="236"/>
+      <c r="Q17" s="236"/>
+      <c r="R17" s="237"/>
+      <c r="S17" s="235"/>
+      <c r="T17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="236"/>
+      <c r="X17" s="237"/>
+      <c r="Y17" s="235"/>
+      <c r="Z17" s="236"/>
+      <c r="AA17" s="236"/>
+      <c r="AB17" s="236"/>
+      <c r="AC17" s="236"/>
+      <c r="AD17" s="237"/>
+      <c r="AE17" s="235"/>
+      <c r="AF17" s="236"/>
+      <c r="AG17" s="236"/>
+      <c r="AH17" s="236"/>
+      <c r="AI17" s="236"/>
+      <c r="AJ17" s="237"/>
       <c r="AK17" s="18"/>
       <c r="AL17" s="18"/>
       <c r="AM17" s="18"/>
@@ -6208,27 +6214,14 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:AE4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="S13:X13"/>
-    <mergeCell ref="AE13:AJ13"/>
-    <mergeCell ref="J8:R8"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="AE15:AJ15"/>
-    <mergeCell ref="S12:X12"/>
-    <mergeCell ref="AE12:AJ12"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="S14:X14"/>
-    <mergeCell ref="AE14:AJ14"/>
-    <mergeCell ref="Y12:AD12"/>
-    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="AE17:AJ17"/>
+    <mergeCell ref="Y14:AD14"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="Y16:AD16"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="S16:X16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="G13:L13"/>
@@ -6244,16 +6237,29 @@
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="M16:R16"/>
     <mergeCell ref="M13:R13"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="AE13:AJ13"/>
+    <mergeCell ref="J8:R8"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="S12:X12"/>
+    <mergeCell ref="AE12:AJ12"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="S14:X14"/>
+    <mergeCell ref="AE14:AJ14"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="Y13:AD13"/>
     <mergeCell ref="AE16:AJ16"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:X17"/>
-    <mergeCell ref="AE17:AJ17"/>
-    <mergeCell ref="Y14:AD14"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="Y16:AD16"/>
-    <mergeCell ref="Y17:AD17"/>
-    <mergeCell ref="S16:X16"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:AE4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="T6:X6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Sheet1!A1" display="Home"/>
@@ -6268,7 +6274,7 @@
   <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6857,39 +6863,39 @@
       <c r="AW5" s="1"/>
     </row>
     <row r="6" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="168"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="167" t="s">
+      <c r="C6" s="172"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="196" t="s">
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="167" t="s">
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="168"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="244" t="s">
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="165"/>
-      <c r="V6" s="165"/>
-      <c r="W6" s="165"/>
-      <c r="X6" s="166"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="191"/>
+      <c r="W6" s="191"/>
+      <c r="X6" s="192"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
@@ -7168,16 +7174,16 @@
       <c r="AN11" s="70"/>
       <c r="AO11" s="17"/>
       <c r="AS11" s="19"/>
-      <c r="AV11" s="245" t="s">
+      <c r="AV11" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="AW11" s="246"/>
-      <c r="AX11" s="247"/>
-      <c r="BA11" s="245" t="s">
+      <c r="AW11" s="245"/>
+      <c r="AX11" s="246"/>
+      <c r="BA11" s="244" t="s">
         <v>102</v>
       </c>
-      <c r="BB11" s="246"/>
-      <c r="BC11" s="247"/>
+      <c r="BB11" s="245"/>
+      <c r="BC11" s="246"/>
       <c r="BF11" s="17"/>
     </row>
     <row r="12" spans="2:59" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7241,18 +7247,18 @@
       <c r="B13" s="7"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="K13" s="245" t="s">
+      <c r="K13" s="244" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="246"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="247"/>
-      <c r="Q13" s="253" t="s">
+      <c r="L13" s="245"/>
+      <c r="M13" s="245"/>
+      <c r="N13" s="246"/>
+      <c r="Q13" s="247" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="254"/>
-      <c r="S13" s="254"/>
-      <c r="T13" s="255"/>
+      <c r="R13" s="248"/>
+      <c r="S13" s="248"/>
+      <c r="T13" s="249"/>
       <c r="AG13" s="16"/>
       <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
@@ -7315,40 +7321,40 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="K15" s="241" t="s">
+      <c r="K15" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="243"/>
-      <c r="M15" s="241" t="s">
+      <c r="L15" s="242"/>
+      <c r="M15" s="240" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="242"/>
-      <c r="O15" s="242"/>
-      <c r="P15" s="242"/>
-      <c r="Q15" s="242"/>
-      <c r="R15" s="243"/>
-      <c r="S15" s="241" t="s">
+      <c r="N15" s="241"/>
+      <c r="O15" s="241"/>
+      <c r="P15" s="241"/>
+      <c r="Q15" s="241"/>
+      <c r="R15" s="242"/>
+      <c r="S15" s="240" t="s">
         <v>77</v>
       </c>
-      <c r="T15" s="242"/>
-      <c r="U15" s="242"/>
-      <c r="V15" s="242"/>
-      <c r="W15" s="242"/>
-      <c r="X15" s="243"/>
-      <c r="Y15" s="241" t="s">
+      <c r="T15" s="241"/>
+      <c r="U15" s="241"/>
+      <c r="V15" s="241"/>
+      <c r="W15" s="241"/>
+      <c r="X15" s="242"/>
+      <c r="Y15" s="240" t="s">
         <v>78</v>
       </c>
-      <c r="Z15" s="242"/>
-      <c r="AA15" s="242"/>
-      <c r="AB15" s="243"/>
-      <c r="AC15" s="241" t="s">
+      <c r="Z15" s="241"/>
+      <c r="AA15" s="241"/>
+      <c r="AB15" s="242"/>
+      <c r="AC15" s="240" t="s">
         <v>79</v>
       </c>
-      <c r="AD15" s="243"/>
-      <c r="AE15" s="241" t="s">
+      <c r="AD15" s="242"/>
+      <c r="AE15" s="240" t="s">
         <v>80</v>
       </c>
-      <c r="AF15" s="243"/>
+      <c r="AF15" s="242"/>
       <c r="AG15" s="15"/>
       <c r="AH15" s="15"/>
       <c r="AI15" s="15"/>
@@ -7363,40 +7369,40 @@
       <c r="B16" s="7"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="K16" s="235">
+      <c r="K16" s="238">
         <v>1</v>
       </c>
-      <c r="L16" s="237"/>
-      <c r="M16" s="235" t="s">
+      <c r="L16" s="239"/>
+      <c r="M16" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="236"/>
-      <c r="O16" s="236"/>
-      <c r="P16" s="236"/>
-      <c r="Q16" s="236"/>
-      <c r="R16" s="237"/>
-      <c r="S16" s="248" t="s">
+      <c r="N16" s="243"/>
+      <c r="O16" s="243"/>
+      <c r="P16" s="243"/>
+      <c r="Q16" s="243"/>
+      <c r="R16" s="239"/>
+      <c r="S16" s="253" t="s">
         <v>82</v>
       </c>
-      <c r="T16" s="236"/>
-      <c r="U16" s="236"/>
-      <c r="V16" s="236"/>
-      <c r="W16" s="236"/>
-      <c r="X16" s="237"/>
-      <c r="Y16" s="250" t="s">
+      <c r="T16" s="243"/>
+      <c r="U16" s="243"/>
+      <c r="V16" s="243"/>
+      <c r="W16" s="243"/>
+      <c r="X16" s="239"/>
+      <c r="Y16" s="252" t="s">
         <v>83</v>
       </c>
-      <c r="Z16" s="236"/>
-      <c r="AA16" s="236"/>
-      <c r="AB16" s="237"/>
-      <c r="AC16" s="235" t="s">
+      <c r="Z16" s="243"/>
+      <c r="AA16" s="243"/>
+      <c r="AB16" s="239"/>
+      <c r="AC16" s="238" t="s">
         <v>85</v>
       </c>
-      <c r="AD16" s="237"/>
-      <c r="AE16" s="252" t="s">
+      <c r="AD16" s="239"/>
+      <c r="AE16" s="250" t="s">
         <v>84</v>
       </c>
-      <c r="AF16" s="237"/>
+      <c r="AF16" s="239"/>
       <c r="AG16" s="15"/>
       <c r="AH16" s="15"/>
       <c r="AI16" s="15"/>
@@ -7417,40 +7423,40 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="238">
+      <c r="K17" s="235">
         <v>2</v>
       </c>
-      <c r="L17" s="240"/>
-      <c r="M17" s="238" t="s">
+      <c r="L17" s="237"/>
+      <c r="M17" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="N17" s="239"/>
-      <c r="O17" s="239"/>
-      <c r="P17" s="239"/>
-      <c r="Q17" s="239"/>
-      <c r="R17" s="240"/>
-      <c r="S17" s="249" t="s">
+      <c r="N17" s="236"/>
+      <c r="O17" s="236"/>
+      <c r="P17" s="236"/>
+      <c r="Q17" s="236"/>
+      <c r="R17" s="237"/>
+      <c r="S17" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="T17" s="239"/>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="240"/>
+      <c r="T17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="236"/>
+      <c r="X17" s="237"/>
       <c r="Y17" s="251" t="s">
         <v>88</v>
       </c>
-      <c r="Z17" s="239"/>
-      <c r="AA17" s="239"/>
-      <c r="AB17" s="240"/>
-      <c r="AC17" s="238" t="s">
+      <c r="Z17" s="236"/>
+      <c r="AA17" s="236"/>
+      <c r="AB17" s="237"/>
+      <c r="AC17" s="235" t="s">
         <v>85</v>
       </c>
-      <c r="AD17" s="240"/>
+      <c r="AD17" s="237"/>
       <c r="AE17" s="251" t="s">
         <v>84</v>
       </c>
-      <c r="AF17" s="240"/>
+      <c r="AF17" s="237"/>
       <c r="AG17" s="15"/>
       <c r="AH17" s="15"/>
       <c r="AI17" s="15"/>
@@ -7471,30 +7477,30 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="235">
+      <c r="K18" s="238">
         <v>3</v>
       </c>
-      <c r="L18" s="237"/>
-      <c r="M18" s="235"/>
-      <c r="N18" s="236"/>
-      <c r="O18" s="236"/>
-      <c r="P18" s="236"/>
-      <c r="Q18" s="236"/>
-      <c r="R18" s="237"/>
-      <c r="S18" s="235"/>
-      <c r="T18" s="236"/>
-      <c r="U18" s="236"/>
-      <c r="V18" s="236"/>
-      <c r="W18" s="236"/>
-      <c r="X18" s="237"/>
-      <c r="Y18" s="235"/>
-      <c r="Z18" s="236"/>
-      <c r="AA18" s="236"/>
-      <c r="AB18" s="237"/>
-      <c r="AC18" s="235"/>
-      <c r="AD18" s="237"/>
-      <c r="AE18" s="235"/>
-      <c r="AF18" s="237"/>
+      <c r="L18" s="239"/>
+      <c r="M18" s="238"/>
+      <c r="N18" s="243"/>
+      <c r="O18" s="243"/>
+      <c r="P18" s="243"/>
+      <c r="Q18" s="243"/>
+      <c r="R18" s="239"/>
+      <c r="S18" s="238"/>
+      <c r="T18" s="243"/>
+      <c r="U18" s="243"/>
+      <c r="V18" s="243"/>
+      <c r="W18" s="243"/>
+      <c r="X18" s="239"/>
+      <c r="Y18" s="238"/>
+      <c r="Z18" s="243"/>
+      <c r="AA18" s="243"/>
+      <c r="AB18" s="239"/>
+      <c r="AC18" s="238"/>
+      <c r="AD18" s="239"/>
+      <c r="AE18" s="238"/>
+      <c r="AF18" s="239"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="15"/>
       <c r="AI18" s="15"/>
@@ -7515,30 +7521,30 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="238">
+      <c r="K19" s="235">
         <v>4</v>
       </c>
-      <c r="L19" s="240"/>
-      <c r="M19" s="238"/>
-      <c r="N19" s="239"/>
-      <c r="O19" s="239"/>
-      <c r="P19" s="239"/>
-      <c r="Q19" s="239"/>
-      <c r="R19" s="240"/>
-      <c r="S19" s="238"/>
-      <c r="T19" s="239"/>
-      <c r="U19" s="239"/>
-      <c r="V19" s="239"/>
-      <c r="W19" s="239"/>
-      <c r="X19" s="240"/>
-      <c r="Y19" s="238"/>
-      <c r="Z19" s="239"/>
-      <c r="AA19" s="239"/>
-      <c r="AB19" s="240"/>
-      <c r="AC19" s="238"/>
-      <c r="AD19" s="240"/>
-      <c r="AE19" s="238"/>
-      <c r="AF19" s="240"/>
+      <c r="L19" s="237"/>
+      <c r="M19" s="235"/>
+      <c r="N19" s="236"/>
+      <c r="O19" s="236"/>
+      <c r="P19" s="236"/>
+      <c r="Q19" s="236"/>
+      <c r="R19" s="237"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="236"/>
+      <c r="U19" s="236"/>
+      <c r="V19" s="236"/>
+      <c r="W19" s="236"/>
+      <c r="X19" s="237"/>
+      <c r="Y19" s="235"/>
+      <c r="Z19" s="236"/>
+      <c r="AA19" s="236"/>
+      <c r="AB19" s="237"/>
+      <c r="AC19" s="235"/>
+      <c r="AD19" s="237"/>
+      <c r="AE19" s="235"/>
+      <c r="AF19" s="237"/>
       <c r="AG19" s="15"/>
       <c r="AH19" s="15"/>
       <c r="AI19" s="15"/>
@@ -7559,30 +7565,30 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="235">
+      <c r="K20" s="238">
         <v>5</v>
       </c>
-      <c r="L20" s="237"/>
-      <c r="M20" s="235"/>
-      <c r="N20" s="236"/>
-      <c r="O20" s="236"/>
-      <c r="P20" s="236"/>
-      <c r="Q20" s="236"/>
-      <c r="R20" s="237"/>
-      <c r="S20" s="235"/>
-      <c r="T20" s="236"/>
-      <c r="U20" s="236"/>
-      <c r="V20" s="236"/>
-      <c r="W20" s="236"/>
-      <c r="X20" s="237"/>
-      <c r="Y20" s="235"/>
-      <c r="Z20" s="236"/>
-      <c r="AA20" s="236"/>
-      <c r="AB20" s="237"/>
-      <c r="AC20" s="235"/>
-      <c r="AD20" s="237"/>
-      <c r="AE20" s="235"/>
-      <c r="AF20" s="237"/>
+      <c r="L20" s="239"/>
+      <c r="M20" s="238"/>
+      <c r="N20" s="243"/>
+      <c r="O20" s="243"/>
+      <c r="P20" s="243"/>
+      <c r="Q20" s="243"/>
+      <c r="R20" s="239"/>
+      <c r="S20" s="238"/>
+      <c r="T20" s="243"/>
+      <c r="U20" s="243"/>
+      <c r="V20" s="243"/>
+      <c r="W20" s="243"/>
+      <c r="X20" s="239"/>
+      <c r="Y20" s="238"/>
+      <c r="Z20" s="243"/>
+      <c r="AA20" s="243"/>
+      <c r="AB20" s="239"/>
+      <c r="AC20" s="238"/>
+      <c r="AD20" s="239"/>
+      <c r="AE20" s="238"/>
+      <c r="AF20" s="239"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
@@ -7645,12 +7651,12 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="245" t="s">
+      <c r="K22" s="244" t="s">
         <v>81</v>
       </c>
-      <c r="L22" s="246"/>
-      <c r="M22" s="246"/>
-      <c r="N22" s="247"/>
+      <c r="L22" s="245"/>
+      <c r="M22" s="245"/>
+      <c r="N22" s="246"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
@@ -8153,31 +8159,13 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="AV11:AX11"/>
-    <mergeCell ref="BA11:BC11"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:AE4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="T6:X6"/>
     <mergeCell ref="K22:N22"/>
     <mergeCell ref="M15:R15"/>
     <mergeCell ref="M16:R16"/>
@@ -8194,13 +8182,31 @@
     <mergeCell ref="S17:X17"/>
     <mergeCell ref="M18:R18"/>
     <mergeCell ref="S18:X18"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:AE4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="AV11:AX11"/>
+    <mergeCell ref="BA11:BC11"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="S15:X15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Sheet1!A1" display="Home"/>
@@ -8217,7 +8223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -12689,39 +12695,39 @@
       <c r="AW5" s="1"/>
     </row>
     <row r="6" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="167" t="s">
+      <c r="C6" s="191"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="196" t="s">
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="167" t="s">
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="168"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="167" t="s">
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="168"/>
-      <c r="V6" s="168"/>
-      <c r="W6" s="168"/>
-      <c r="X6" s="169"/>
+      <c r="U6" s="172"/>
+      <c r="V6" s="172"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="173"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
@@ -12828,10 +12834,10 @@
     </row>
     <row r="9" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="171"/>
+      <c r="D9" s="194"/>
       <c r="E9" s="35" t="s">
         <v>9</v>
       </c>
@@ -12872,16 +12878,16 @@
       <c r="AJ9" s="35"/>
       <c r="AK9" s="35"/>
       <c r="AL9" s="45"/>
-      <c r="AM9" s="174" t="s">
+      <c r="AM9" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="175"/>
+      <c r="AN9" s="196"/>
       <c r="AO9" s="17"/>
     </row>
     <row r="10" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="173"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="33" t="s">
         <v>199</v>
       </c>
@@ -12922,16 +12928,16 @@
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
       <c r="AL10" s="46"/>
-      <c r="AM10" s="176"/>
-      <c r="AN10" s="177"/>
+      <c r="AM10" s="197"/>
+      <c r="AN10" s="198"/>
       <c r="AO10" s="17"/>
     </row>
     <row r="11" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="180" t="s">
+      <c r="C11" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="181"/>
+      <c r="D11" s="175"/>
       <c r="E11" s="34" t="s">
         <v>14</v>
       </c>
@@ -12972,16 +12978,16 @@
       <c r="AJ11" s="50"/>
       <c r="AK11" s="50"/>
       <c r="AL11" s="51"/>
-      <c r="AM11" s="192" t="s">
+      <c r="AM11" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="AN11" s="193"/>
+      <c r="AN11" s="165"/>
       <c r="AO11" s="17"/>
     </row>
     <row r="12" spans="2:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="181"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="175"/>
       <c r="E12" s="34" t="s">
         <v>200</v>
       </c>
@@ -13022,14 +13028,14 @@
       <c r="AJ12" s="50"/>
       <c r="AK12" s="50"/>
       <c r="AL12" s="51"/>
-      <c r="AM12" s="194"/>
-      <c r="AN12" s="195"/>
+      <c r="AM12" s="166"/>
+      <c r="AN12" s="167"/>
       <c r="AO12" s="17"/>
     </row>
     <row r="13" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="177"/>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
       <c r="G13" s="64"/>
@@ -13070,8 +13076,8 @@
     </row>
     <row r="14" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="173"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -13112,8 +13118,8 @@
     </row>
     <row r="15" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="181"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
@@ -13154,8 +13160,8 @@
     </row>
     <row r="16" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="183"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="181"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
@@ -13196,8 +13202,8 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="185"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="183"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -13238,8 +13244,8 @@
     </row>
     <row r="18" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="187"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="185"/>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
@@ -13366,10 +13372,10 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="C21" s="188" t="s">
+      <c r="C21" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="189"/>
+      <c r="D21" s="187"/>
       <c r="E21" s="59" t="s">
         <v>20</v>
       </c>
@@ -13416,8 +13422,8 @@
     </row>
     <row r="22" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="19"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="191"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="189"/>
       <c r="E22" s="62" t="s">
         <v>21</v>
       </c>
@@ -13936,21 +13942,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E2:AE4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="AM9:AN10"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="AM11:AN12"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="O6:S6"/>
     <mergeCell ref="T6:X6"/>
     <mergeCell ref="C11:D12"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:AE4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="AM9:AN10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Sheet1!A1" display="Home"/>
@@ -14282,8 +14288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V10" sqref="V10:V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14526,39 +14532,39 @@
       <c r="AW5" s="1"/>
     </row>
     <row r="6" spans="2:59" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="167" t="s">
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="196" t="s">
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="167" t="s">
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="168"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="167" t="s">
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="168"/>
-      <c r="V6" s="168"/>
-      <c r="W6" s="168"/>
-      <c r="X6" s="169"/>
+      <c r="U6" s="172"/>
+      <c r="V6" s="172"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="173"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
@@ -14854,18 +14860,18 @@
       <c r="AD16" s="95"/>
       <c r="AO16" s="17"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="P17" s="95"/>
       <c r="Q17" s="95"/>
       <c r="R17" s="95"/>
-      <c r="S17" s="202" t="s">
+      <c r="S17" s="255" t="s">
         <v>112</v>
       </c>
-      <c r="T17" s="202"/>
-      <c r="U17" s="202"/>
-      <c r="V17" s="202"/>
-      <c r="W17" s="202"/>
+      <c r="T17" s="256"/>
+      <c r="U17" s="256"/>
+      <c r="V17" s="256"/>
+      <c r="W17" s="257"/>
       <c r="AA17" s="95"/>
       <c r="AB17" s="95"/>
       <c r="AC17" s="95"/>
@@ -14875,11 +14881,11 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="S18" s="202"/>
-      <c r="T18" s="202"/>
-      <c r="U18" s="202"/>
-      <c r="V18" s="202"/>
-      <c r="W18" s="202"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="124"/>
       <c r="AO18" s="17"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -15464,7 +15470,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="S17:W18"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="E2:AE4"/>
     <mergeCell ref="B6:D6"/>
@@ -15478,6 +15483,7 @@
     <mergeCell ref="AB11:AM11"/>
     <mergeCell ref="I12:T12"/>
     <mergeCell ref="AB12:AM12"/>
+    <mergeCell ref="S17:W17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Sheet1!A1" display="Home"/>
